--- a/data_xlsx/上证所_A股_总市值.xlsx
+++ b/data_xlsx/上证所_A股_总市值.xlsx
@@ -38991,7 +38991,7 @@
         <v>44578.0</v>
       </c>
       <c r="B4864" s="2" t="n">
-        <v>506718.0</v>
+        <v>451111.0</v>
       </c>
     </row>
     <row r="4865">
@@ -38999,7 +38999,7 @@
         <v>44579.0</v>
       </c>
       <c r="B4865" s="2" t="n">
-        <v>510276.0</v>
+        <v>455096.0</v>
       </c>
     </row>
     <row r="4866">
@@ -39007,7 +39007,7 @@
         <v>44580.0</v>
       </c>
       <c r="B4866" s="2" t="n">
-        <v>508371.0</v>
+        <v>453863.0</v>
       </c>
     </row>
     <row r="4867">
@@ -39015,7 +39015,7 @@
         <v>44581.0</v>
       </c>
       <c r="B4867" s="2" t="n">
-        <v>507280.0</v>
+        <v>454034.0</v>
       </c>
     </row>
     <row r="4868">
@@ -39023,7 +39023,7 @@
         <v>44582.0</v>
       </c>
       <c r="B4868" s="2" t="n">
-        <v>502505.0</v>
+        <v>450130.0</v>
       </c>
     </row>
     <row r="4869">
@@ -39031,7 +39031,7 @@
         <v>44585.0</v>
       </c>
       <c r="B4869" s="2" t="n">
-        <v>502729.0</v>
+        <v>449978.0</v>
       </c>
     </row>
     <row r="4870">
@@ -39039,7 +39039,7 @@
         <v>44586.0</v>
       </c>
       <c r="B4870" s="2" t="n">
-        <v>489484.0</v>
+        <v>438411.0</v>
       </c>
     </row>
     <row r="4871">
@@ -39047,7 +39047,7 @@
         <v>44587.0</v>
       </c>
       <c r="B4871" s="2" t="n">
-        <v>493718.0</v>
+        <v>441544.0</v>
       </c>
     </row>
     <row r="4872">
@@ -39055,7 +39055,7 @@
         <v>44588.0</v>
       </c>
       <c r="B4872" s="2" t="n">
-        <v>485058.0</v>
+        <v>434337.0</v>
       </c>
     </row>
     <row r="4873">
@@ -39063,7 +39063,7 @@
         <v>44589.0</v>
       </c>
       <c r="B4873" s="2" t="n">
-        <v>480834.0</v>
+        <v>430301.0</v>
       </c>
     </row>
     <row r="4874">
@@ -39071,7 +39071,7 @@
         <v>44599.0</v>
       </c>
       <c r="B4874" s="2" t="n">
-        <v>490217.0</v>
+        <v>439533.0</v>
       </c>
     </row>
     <row r="4875">
@@ -39079,7 +39079,7 @@
         <v>44600.0</v>
       </c>
       <c r="B4875" s="2" t="n">
-        <v>493271.0</v>
+        <v>443404.0</v>
       </c>
     </row>
     <row r="4876">
@@ -39087,7 +39087,7 @@
         <v>44601.0</v>
       </c>
       <c r="B4876" s="2" t="n">
-        <v>497577.0</v>
+        <v>447028.0</v>
       </c>
     </row>
     <row r="4877">
@@ -39095,7 +39095,7 @@
         <v>44602.0</v>
       </c>
       <c r="B4877" s="2" t="n">
-        <v>497914.0</v>
+        <v>448361.0</v>
       </c>
     </row>
     <row r="4878">
@@ -39103,7 +39103,7 @@
         <v>44603.0</v>
       </c>
       <c r="B4878" s="2" t="n">
-        <v>493990.0</v>
+        <v>445783.0</v>
       </c>
     </row>
     <row r="4879">
@@ -39111,7 +39111,7 @@
         <v>44606.0</v>
       </c>
       <c r="B4879" s="2" t="n">
-        <v>489337.0</v>
+        <v>441241.0</v>
       </c>
     </row>
     <row r="4880">
@@ -39119,7 +39119,7 @@
         <v>44607.0</v>
       </c>
       <c r="B4880" s="2" t="n">
-        <v>492289.0</v>
+        <v>442832.0</v>
       </c>
     </row>
     <row r="4881">
@@ -39127,7 +39127,7 @@
         <v>44608.0</v>
       </c>
       <c r="B4881" s="2" t="n">
-        <v>495377.0</v>
+        <v>445696.0</v>
       </c>
     </row>
     <row r="4882">
@@ -39135,7 +39135,7 @@
         <v>44609.0</v>
       </c>
       <c r="B4882" s="2" t="n">
-        <v>495646.0</v>
+        <v>445631.0</v>
       </c>
     </row>
     <row r="4883">
@@ -39143,7 +39143,7 @@
         <v>44610.0</v>
       </c>
       <c r="B4883" s="2" t="n">
-        <v>498713.0</v>
+        <v>448899.0</v>
       </c>
     </row>
     <row r="4884">
@@ -39151,7 +39151,7 @@
         <v>44613.0</v>
       </c>
       <c r="B4884" s="2" t="n">
-        <v>498871.0</v>
+        <v>449077.0</v>
       </c>
     </row>
     <row r="4885">
@@ -39159,7 +39159,7 @@
         <v>44614.0</v>
       </c>
       <c r="B4885" s="2" t="n">
-        <v>494315.0</v>
+        <v>444965.0</v>
       </c>
     </row>
     <row r="4886">
@@ -39167,7 +39167,7 @@
         <v>44615.0</v>
       </c>
       <c r="B4886" s="2" t="n">
-        <v>499585.0</v>
+        <v>448181.0</v>
       </c>
     </row>
     <row r="4887">
@@ -39175,7 +39175,7 @@
         <v>44616.0</v>
       </c>
       <c r="B4887" s="2" t="n">
-        <v>491001.0</v>
+        <v>440503.0</v>
       </c>
     </row>
     <row r="4888">
@@ -39183,7 +39183,7 @@
         <v>44617.0</v>
       </c>
       <c r="B4888" s="2" t="n">
-        <v>494405.0</v>
+        <v>442846.0</v>
       </c>
     </row>
     <row r="4889">
@@ -39191,7 +39191,7 @@
         <v>44620.0</v>
       </c>
       <c r="B4889" s="2" t="n">
-        <v>496140.0</v>
+        <v>444058.0</v>
       </c>
     </row>
     <row r="4890">
@@ -39199,7 +39199,7 @@
         <v>44621.0</v>
       </c>
       <c r="B4890" s="2" t="n">
-        <v>499959.0</v>
+        <v>447934.0</v>
       </c>
     </row>
     <row r="4891">
@@ -39207,7 +39207,7 @@
         <v>44622.0</v>
       </c>
       <c r="B4891" s="2" t="n">
-        <v>499222.0</v>
+        <v>447481.0</v>
       </c>
     </row>
     <row r="4892">
@@ -39215,7 +39215,7 @@
         <v>44623.0</v>
       </c>
       <c r="B4892" s="2" t="n">
-        <v>498442.0</v>
+        <v>447670.0</v>
       </c>
     </row>
     <row r="4893">
@@ -39223,7 +39223,7 @@
         <v>44624.0</v>
       </c>
       <c r="B4893" s="2" t="n">
-        <v>493844.0</v>
+        <v>443262.0</v>
       </c>
     </row>
     <row r="4894">
@@ -39231,7 +39231,7 @@
         <v>44627.0</v>
       </c>
       <c r="B4894" s="2" t="n">
-        <v>483458.0</v>
+        <v>434027.0</v>
       </c>
     </row>
     <row r="4895">
@@ -39239,7 +39239,7 @@
         <v>44628.0</v>
       </c>
       <c r="B4895" s="2" t="n">
-        <v>472240.0</v>
+        <v>423953.0</v>
       </c>
     </row>
     <row r="4896">
@@ -39247,7 +39247,7 @@
         <v>44629.0</v>
       </c>
       <c r="B4896" s="2" t="n">
-        <v>467029.0</v>
+        <v>419214.0</v>
       </c>
     </row>
     <row r="4897">
@@ -39255,7 +39255,7 @@
         <v>44630.0</v>
       </c>
       <c r="B4897" s="2" t="n">
-        <v>472948.0</v>
+        <v>424101.0</v>
       </c>
     </row>
     <row r="4898">
@@ -39263,7 +39263,7 @@
         <v>44631.0</v>
       </c>
       <c r="B4898" s="2" t="n">
-        <v>474978.0</v>
+        <v>425653.0</v>
       </c>
     </row>
     <row r="4899">
@@ -39271,7 +39271,7 @@
         <v>44634.0</v>
       </c>
       <c r="B4899" s="2" t="n">
-        <v>462727.0</v>
+        <v>414814.0</v>
       </c>
     </row>
     <row r="4900">
@@ -39279,7 +39279,7 @@
         <v>44635.0</v>
       </c>
       <c r="B4900" s="2" t="n">
-        <v>440426.0</v>
+        <v>394165.0</v>
       </c>
     </row>
     <row r="4901">
@@ -39287,7 +39287,7 @@
         <v>44636.0</v>
       </c>
       <c r="B4901" s="2" t="n">
-        <v>455326.0</v>
+        <v>407784.0</v>
       </c>
     </row>
     <row r="4902">
@@ -39295,7 +39295,7 @@
         <v>44637.0</v>
       </c>
       <c r="B4902" s="2" t="n">
-        <v>461789.0</v>
+        <v>413281.0</v>
       </c>
     </row>
     <row r="4903">
@@ -39303,7 +39303,7 @@
         <v>44638.0</v>
       </c>
       <c r="B4903" s="2" t="n">
-        <v>466873.0</v>
+        <v>418324.0</v>
       </c>
     </row>
     <row r="4904">
@@ -39311,7 +39311,7 @@
         <v>44641.0</v>
       </c>
       <c r="B4904" s="2" t="n">
-        <v>467709.0</v>
+        <v>418451.0</v>
       </c>
     </row>
     <row r="4905">
@@ -39319,7 +39319,7 @@
         <v>44642.0</v>
       </c>
       <c r="B4905" s="2" t="n">
-        <v>468353.0</v>
+        <v>419655.0</v>
       </c>
     </row>
     <row r="4906">
@@ -39327,7 +39327,7 @@
         <v>44643.0</v>
       </c>
       <c r="B4906" s="2" t="n">
-        <v>470066.0</v>
+        <v>420950.0</v>
       </c>
     </row>
     <row r="4907">
@@ -39335,7 +39335,7 @@
         <v>44644.0</v>
       </c>
       <c r="B4907" s="2" t="n">
-        <v>467063.0</v>
+        <v>418545.0</v>
       </c>
     </row>
     <row r="4908">
@@ -39343,7 +39343,7 @@
         <v>44645.0</v>
       </c>
       <c r="B4908" s="2" t="n">
-        <v>461413.0</v>
+        <v>414032.0</v>
       </c>
     </row>
     <row r="4909">
@@ -41826,8 +41826,88 @@
         <v>426054.0</v>
       </c>
     </row>
+    <row r="5219">
+      <c r="A5219" s="1" t="n">
+        <v>45114.0</v>
+      </c>
+      <c r="B5219" s="2" t="n">
+        <v>425313.0</v>
+      </c>
+    </row>
     <row r="5220">
-      <c r="A5220" s="3" t="inlineStr">
+      <c r="A5220" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B5220" s="2" t="n">
+        <v>426360.0</v>
+      </c>
+    </row>
+    <row r="5221">
+      <c r="A5221" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B5221" s="2" t="n">
+        <v>428527.0</v>
+      </c>
+    </row>
+    <row r="5222">
+      <c r="A5222" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B5222" s="2" t="n">
+        <v>425641.0</v>
+      </c>
+    </row>
+    <row r="5223">
+      <c r="A5223" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B5223" s="2" t="n">
+        <v>431130.0</v>
+      </c>
+    </row>
+    <row r="5224">
+      <c r="A5224" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B5224" s="2" t="n">
+        <v>431566.0</v>
+      </c>
+    </row>
+    <row r="5225">
+      <c r="A5225" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B5225" s="2" t="n">
+        <v>427742.0</v>
+      </c>
+    </row>
+    <row r="5226">
+      <c r="A5226" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B5226" s="2" t="n">
+        <v>426249.0</v>
+      </c>
+    </row>
+    <row r="5227">
+      <c r="A5227" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B5227" s="2" t="n">
+        <v>426768.0</v>
+      </c>
+    </row>
+    <row r="5228">
+      <c r="A5228" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B5228" s="2" t="n">
+        <v>423215.0</v>
+      </c>
+    </row>
+    <row r="5230">
+      <c r="A5230" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/上证所_A股_总市值.xlsx
+++ b/data_xlsx/上证所_A股_总市值.xlsx
@@ -41906,8 +41906,208 @@
         <v>423215.0</v>
       </c>
     </row>
+    <row r="5229">
+      <c r="A5229" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B5229" s="2" t="n">
+        <v>423211.0</v>
+      </c>
+    </row>
     <row r="5230">
-      <c r="A5230" s="3" t="inlineStr">
+      <c r="A5230" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B5230" s="2" t="n">
+        <v>422810.0</v>
+      </c>
+    </row>
+    <row r="5231">
+      <c r="A5231" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B5231" s="2" t="n">
+        <v>432222.0</v>
+      </c>
+    </row>
+    <row r="5232">
+      <c r="A5232" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B5232" s="2" t="n">
+        <v>431181.0</v>
+      </c>
+    </row>
+    <row r="5233">
+      <c r="A5233" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B5233" s="2" t="n">
+        <v>430758.0</v>
+      </c>
+    </row>
+    <row r="5234">
+      <c r="A5234" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B5234" s="2" t="n">
+        <v>439304.0</v>
+      </c>
+    </row>
+    <row r="5235">
+      <c r="A5235" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B5235" s="2" t="n">
+        <v>441537.0</v>
+      </c>
+    </row>
+    <row r="5236">
+      <c r="A5236" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B5236" s="2" t="n">
+        <v>441718.0</v>
+      </c>
+    </row>
+    <row r="5237">
+      <c r="A5237" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B5237" s="2" t="n">
+        <v>437557.0</v>
+      </c>
+    </row>
+    <row r="5238">
+      <c r="A5238" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B5238" s="2" t="n">
+        <v>440307.0</v>
+      </c>
+    </row>
+    <row r="5239">
+      <c r="A5239" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B5239" s="2" t="n">
+        <v>441451.0</v>
+      </c>
+    </row>
+    <row r="5240">
+      <c r="A5240" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B5240" s="2" t="n">
+        <v>439097.0</v>
+      </c>
+    </row>
+    <row r="5241">
+      <c r="A5241" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B5241" s="2" t="n">
+        <v>438595.0</v>
+      </c>
+    </row>
+    <row r="5242">
+      <c r="A5242" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B5242" s="2" t="n">
+        <v>436558.0</v>
+      </c>
+    </row>
+    <row r="5243">
+      <c r="A5243" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B5243" s="2" t="n">
+        <v>438073.0</v>
+      </c>
+    </row>
+    <row r="5244">
+      <c r="A5244" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B5244" s="2" t="n">
+        <v>429067.0</v>
+      </c>
+    </row>
+    <row r="5245">
+      <c r="A5245" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B5245" s="2" t="n">
+        <v>427798.0</v>
+      </c>
+    </row>
+    <row r="5246">
+      <c r="A5246" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B5246" s="2" t="n">
+        <v>428314.0</v>
+      </c>
+    </row>
+    <row r="5247">
+      <c r="A5247" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B5247" s="2" t="n">
+        <v>425437.0</v>
+      </c>
+    </row>
+    <row r="5248">
+      <c r="A5248" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B5248" s="2" t="n">
+        <v>427036.0</v>
+      </c>
+    </row>
+    <row r="5249">
+      <c r="A5249" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B5249" s="2" t="n">
+        <v>422575.0</v>
+      </c>
+    </row>
+    <row r="5250">
+      <c r="A5250" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B5250" s="2" t="n">
+        <v>417574.0</v>
+      </c>
+    </row>
+    <row r="5251">
+      <c r="A5251" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B5251" s="2" t="n">
+        <v>421574.0</v>
+      </c>
+    </row>
+    <row r="5252">
+      <c r="A5252" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B5252" s="2" t="n">
+        <v>416479.0</v>
+      </c>
+    </row>
+    <row r="5253">
+      <c r="A5253" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B5253" s="2" t="n">
+        <v>416560.0</v>
+      </c>
+    </row>
+    <row r="5255">
+      <c r="A5255" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
